--- a/Datafiles ENA upload Temporal signal paper.xlsx
+++ b/Datafiles ENA upload Temporal signal paper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://africamuseum-my.sharepoint.com/personal/ruben_schols_africamuseum_be/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://africamuseum-my.sharepoint.com/personal/ruben_schols_africamuseum_be/Documents/Documents/PhD/data_analysis/Temporal_pattern/Manuscript/First submission - Animal Microbiome/phyloseq object for review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{BBE427E2-43C4-496E-8425-87A05DEFA4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52DB05AB-2B7D-42AC-97AC-49D4E8C97F3E}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{BBE427E2-43C4-496E-8425-87A05DEFA4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{417CA713-09F8-4ECA-94D1-76509C961AD4}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{45BC2547-B5B7-43E2-B9A0-6D4D6A5FFFF2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45BC2547-B5B7-43E2-B9A0-6D4D6A5FFFF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="913">
   <si>
     <t>Sample code</t>
   </si>
@@ -2772,6 +2772,9 @@
   </si>
   <si>
     <t>GC139408_H12_S287_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>prop_Schisto</t>
   </si>
 </sst>
 </file>
@@ -3157,21 +3160,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA4A6FA-A2E6-4436-9253-89A981C336AF}">
-  <dimension ref="A1:N220"/>
+  <dimension ref="A1:O220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3214,8 +3217,11 @@
       <c r="N1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3255,8 +3261,11 @@
       <c r="N2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>0.40959084899999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3296,8 +3305,11 @@
       <c r="N3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>0.59940330900000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3337,8 +3349,11 @@
       <c r="N4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>0.63803292499999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3378,8 +3393,11 @@
       <c r="N5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>0.67354651200000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3419,8 +3437,11 @@
       <c r="N6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>0.60519740099999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3460,8 +3481,11 @@
       <c r="N7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>0.56020657799999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3501,8 +3525,11 @@
       <c r="N8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>0.39484536100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3542,8 +3569,11 @@
       <c r="N9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>0.486214337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -3583,8 +3613,11 @@
       <c r="N10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>0.710741921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3624,8 +3657,11 @@
       <c r="N11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>0.57075374800000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3665,8 +3701,11 @@
       <c r="N12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <v>0.52709050999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3706,8 +3745,11 @@
       <c r="N13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <v>0.53787727399999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3747,8 +3789,11 @@
       <c r="N14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <v>8.8186953999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -3788,8 +3833,11 @@
       <c r="N15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>0.12264349300000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -3829,8 +3877,11 @@
       <c r="N16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>0.42183854399999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -3870,8 +3921,11 @@
       <c r="N17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>0.59420795500000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -3911,8 +3965,11 @@
       <c r="N18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>0.64008993400000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -3952,8 +4009,11 @@
       <c r="N19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <v>0.57029859599999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -3993,8 +4053,11 @@
       <c r="N20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <v>0.65457685700000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -4034,8 +4097,11 @@
       <c r="N21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <v>0.13955921299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -4075,8 +4141,11 @@
       <c r="N22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <v>0.55686762000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4116,8 +4185,11 @@
       <c r="N23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <v>4.2430506E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -4157,8 +4229,11 @@
       <c r="N24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <v>0.54142427299999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -4198,8 +4273,11 @@
       <c r="N25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <v>0.60224177700000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -4239,8 +4317,11 @@
       <c r="N26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <v>0.33923705700000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -4280,8 +4361,11 @@
       <c r="N27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27">
+        <v>0.51022434000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -4321,8 +4405,11 @@
       <c r="N28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <v>0.31675201200000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -4362,8 +4449,11 @@
       <c r="N29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29">
+        <v>0.61823074300000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -4403,8 +4493,11 @@
       <c r="N30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30">
+        <v>0.35712458400000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -4444,8 +4537,11 @@
       <c r="N31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31">
+        <v>0.52482758600000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -4485,8 +4581,11 @@
       <c r="N32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32">
+        <v>0.53462282400000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -4526,8 +4625,11 @@
       <c r="N33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33">
+        <v>0.476201981</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -4567,8 +4669,11 @@
       <c r="N34" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34">
+        <v>0.70128118699999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -4608,8 +4713,11 @@
       <c r="N35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <v>4.9035506999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -4649,8 +4757,11 @@
       <c r="N36" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36">
+        <v>0.17336385200000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -4690,8 +4801,11 @@
       <c r="N37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37">
+        <v>0.66049320600000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -4719,8 +4833,11 @@
       <c r="I38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -4760,8 +4877,11 @@
       <c r="N39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39">
+        <v>0.57002255499999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -4801,8 +4921,11 @@
       <c r="N40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40">
+        <v>0.56427278199999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -4842,8 +4965,11 @@
       <c r="N41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O41">
+        <v>0.42408135000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -4883,8 +5009,11 @@
       <c r="N42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O42">
+        <v>0.74735702999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -4924,8 +5053,11 @@
       <c r="N43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O43">
+        <v>0.73746505100000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -4965,8 +5097,11 @@
       <c r="N44" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44">
+        <v>0.57520375400000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -5006,8 +5141,11 @@
       <c r="N45" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O45">
+        <v>0.61886845000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -5035,8 +5173,11 @@
       <c r="I46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -5076,8 +5217,11 @@
       <c r="N47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O47">
+        <v>0.681359045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -5117,8 +5261,11 @@
       <c r="N48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O48">
+        <v>0.56175047300000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -5158,8 +5305,11 @@
       <c r="N49" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O49">
+        <v>0.53018611000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -5199,8 +5349,11 @@
       <c r="N50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O50">
+        <v>0.68877697800000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -5240,8 +5393,11 @@
       <c r="N51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O51">
+        <v>0.29650976600000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -5281,8 +5437,11 @@
       <c r="N52" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O52">
+        <v>8.6694130999999994E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -5322,8 +5481,11 @@
       <c r="N53" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O53">
+        <v>0.37223658999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -5351,8 +5513,11 @@
       <c r="I54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -5392,8 +5557,11 @@
       <c r="N55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O55">
+        <v>0.46261199200000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -5433,8 +5601,11 @@
       <c r="N56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O56">
+        <v>0.54203633299999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -5474,8 +5645,11 @@
       <c r="N57" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O57">
+        <v>0.62318087300000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -5515,8 +5689,11 @@
       <c r="N58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O58">
+        <v>0.59061338299999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -5556,8 +5733,11 @@
       <c r="N59" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O59">
+        <v>0.66918084499999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -5597,8 +5777,11 @@
       <c r="N60" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O60">
+        <v>0.58244552100000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>135</v>
       </c>
@@ -5638,8 +5821,11 @@
       <c r="N61" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O61">
+        <v>6.9333713000000005E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -5667,8 +5853,11 @@
       <c r="I62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>150</v>
       </c>
@@ -5696,8 +5885,11 @@
       <c r="I63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -5725,8 +5917,11 @@
       <c r="I64" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -5763,8 +5958,11 @@
       <c r="N65" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O65">
+        <v>0.53750255499999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>158</v>
       </c>
@@ -5801,8 +5999,11 @@
       <c r="N66" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O66">
+        <v>0.42766907999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>160</v>
       </c>
@@ -5839,8 +6040,11 @@
       <c r="N67" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O67">
+        <v>0.29637171400000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>162</v>
       </c>
@@ -5877,8 +6081,11 @@
       <c r="N68" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O68">
+        <v>0.61062843899999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -5915,8 +6122,11 @@
       <c r="N69" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O69">
+        <v>0.48465992600000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -5956,8 +6166,11 @@
       <c r="N70" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O70">
+        <v>0.67187759899999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>169</v>
       </c>
@@ -5997,8 +6210,11 @@
       <c r="N71" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O71">
+        <v>0.60064935100000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>171</v>
       </c>
@@ -6035,8 +6251,11 @@
       <c r="N72" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O72">
+        <v>1.4628014E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>174</v>
       </c>
@@ -6073,8 +6292,11 @@
       <c r="N73" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O73">
+        <v>4.8490798000000002E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>176</v>
       </c>
@@ -6111,8 +6333,11 @@
       <c r="N74" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O74">
+        <v>8.6268424999999996E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>178</v>
       </c>
@@ -6149,8 +6374,11 @@
       <c r="N75" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O75">
+        <v>4.3017899999999998E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>180</v>
       </c>
@@ -6187,8 +6415,11 @@
       <c r="N76" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O76">
+        <v>0.38842021799999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>182</v>
       </c>
@@ -6225,8 +6456,11 @@
       <c r="N77" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O77">
+        <v>0.650078084</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>184</v>
       </c>
@@ -6263,8 +6497,11 @@
       <c r="N78" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O78">
+        <v>0.48037357899999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>186</v>
       </c>
@@ -6301,8 +6538,11 @@
       <c r="N79" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O79">
+        <v>0.272595955</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>188</v>
       </c>
@@ -6339,8 +6579,11 @@
       <c r="N80" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O80">
+        <v>0.48876574299999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>190</v>
       </c>
@@ -6377,8 +6620,11 @@
       <c r="N81" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O81">
+        <v>0.68964166800000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>192</v>
       </c>
@@ -6418,8 +6664,11 @@
       <c r="N82" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O82">
+        <v>0.662276215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>194</v>
       </c>
@@ -6459,8 +6708,11 @@
       <c r="N83" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O83">
+        <v>0.58992118500000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>196</v>
       </c>
@@ -6497,8 +6749,11 @@
       <c r="N84" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O84">
+        <v>6.5719899999999998E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>198</v>
       </c>
@@ -6535,8 +6790,11 @@
       <c r="N85" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O85">
+        <v>8.4207077000000005E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>200</v>
       </c>
@@ -6573,8 +6831,11 @@
       <c r="N86" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O86">
+        <v>8.8655392999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>202</v>
       </c>
@@ -6611,8 +6872,11 @@
       <c r="N87" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O87">
+        <v>4.5923929000000002E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>204</v>
       </c>
@@ -6649,8 +6913,11 @@
       <c r="N88" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O88">
+        <v>0.58297660500000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>206</v>
       </c>
@@ -6687,8 +6954,11 @@
       <c r="N89" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O89">
+        <v>2.4613191E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>208</v>
       </c>
@@ -6725,8 +6995,11 @@
       <c r="N90" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O90">
+        <v>0.55103335799999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>210</v>
       </c>
@@ -6763,8 +7036,11 @@
       <c r="N91" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O91">
+        <v>0.54899931000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>212</v>
       </c>
@@ -6801,8 +7077,11 @@
       <c r="N92" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O92">
+        <v>0.68158347699999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>214</v>
       </c>
@@ -6842,8 +7121,11 @@
       <c r="N93" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O93">
+        <v>0.68770070599999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>216</v>
       </c>
@@ -6880,8 +7162,11 @@
       <c r="N94" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O94">
+        <v>3.7232329000000002E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>218</v>
       </c>
@@ -6918,8 +7203,11 @@
       <c r="N95" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O95">
+        <v>3.3995416000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -6956,8 +7244,11 @@
       <c r="N96" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O96">
+        <v>6.1549263E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>222</v>
       </c>
@@ -6994,8 +7285,11 @@
       <c r="N97" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O97">
+        <v>4.9388597999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>224</v>
       </c>
@@ -7032,8 +7326,11 @@
       <c r="N98" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O98">
+        <v>5.6548838999999997E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>226</v>
       </c>
@@ -7070,8 +7367,11 @@
       <c r="N99" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O99">
+        <v>0.48912894800000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>228</v>
       </c>
@@ -7108,8 +7408,11 @@
       <c r="N100" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O100">
+        <v>0.60440417000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>230</v>
       </c>
@@ -7146,8 +7449,11 @@
       <c r="N101" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O101">
+        <v>1.0916308E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -7184,8 +7490,11 @@
       <c r="N102" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O102">
+        <v>0.44384765599999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>234</v>
       </c>
@@ -7222,8 +7531,11 @@
       <c r="N103" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O103">
+        <v>0.53785254800000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>236</v>
       </c>
@@ -7260,8 +7572,11 @@
       <c r="N104" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O104">
+        <v>0.38011853400000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>238</v>
       </c>
@@ -7301,8 +7616,11 @@
       <c r="N105" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O105">
+        <v>0.24752866700000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>240</v>
       </c>
@@ -7339,8 +7657,11 @@
       <c r="N106" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O106">
+        <v>3.4344081999999998E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>242</v>
       </c>
@@ -7377,8 +7698,11 @@
       <c r="N107" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O107">
+        <v>7.4251497E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>244</v>
       </c>
@@ -7415,8 +7739,11 @@
       <c r="N108" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O108">
+        <v>3.0222624999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>246</v>
       </c>
@@ -7453,8 +7780,11 @@
       <c r="N109" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O109">
+        <v>9.3781487999999996E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>248</v>
       </c>
@@ -7491,8 +7821,11 @@
       <c r="N110" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O110">
+        <v>6.8605076000000001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>250</v>
       </c>
@@ -7529,8 +7862,11 @@
       <c r="N111" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O111">
+        <v>0.40911567100000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>252</v>
       </c>
@@ -7567,8 +7903,11 @@
       <c r="N112" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O112">
+        <v>0.57156488500000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>254</v>
       </c>
@@ -7605,8 +7944,11 @@
       <c r="N113" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O113">
+        <v>0.111912634</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>256</v>
       </c>
@@ -7643,8 +7985,11 @@
       <c r="N114" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O114">
+        <v>0.39654862499999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>258</v>
       </c>
@@ -7681,8 +8026,11 @@
       <c r="N115" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O115">
+        <v>0.51620839399999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>260</v>
       </c>
@@ -7722,8 +8070,11 @@
       <c r="N116" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O116">
+        <v>7.2751056999999994E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>262</v>
       </c>
@@ -7763,8 +8114,11 @@
       <c r="N117" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O117">
+        <v>0.10799484199999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>264</v>
       </c>
@@ -7801,8 +8155,11 @@
       <c r="N118" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O118">
+        <v>3.3330766999999997E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>266</v>
       </c>
@@ -7839,8 +8196,11 @@
       <c r="N119" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O119">
+        <v>4.0053125000000002E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>268</v>
       </c>
@@ -7877,8 +8237,11 @@
       <c r="N120" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O120">
+        <v>1.4056112000000001E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>270</v>
       </c>
@@ -7915,8 +8278,11 @@
       <c r="N121" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O121">
+        <v>8.4587905000000005E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>272</v>
       </c>
@@ -7953,8 +8319,11 @@
       <c r="N122" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O122">
+        <v>6.0563787000000001E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>274</v>
       </c>
@@ -7991,8 +8360,11 @@
       <c r="N123" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O123">
+        <v>0.47536373599999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>276</v>
       </c>
@@ -8029,8 +8401,11 @@
       <c r="N124" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O124">
+        <v>0.55696034100000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>278</v>
       </c>
@@ -8067,8 +8442,11 @@
       <c r="N125" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O125">
+        <v>5.8022793000000003E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>280</v>
       </c>
@@ -8105,8 +8483,11 @@
       <c r="N126" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O126">
+        <v>0.48229088199999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>282</v>
       </c>
@@ -8143,8 +8524,11 @@
       <c r="N127" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O127">
+        <v>0.456409342</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>284</v>
       </c>
@@ -8184,8 +8568,11 @@
       <c r="N128" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O128">
+        <v>8.2335389999999994E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>286</v>
       </c>
@@ -8225,8 +8612,11 @@
       <c r="N129" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O129">
+        <v>0.66224872999999995</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>288</v>
       </c>
@@ -8263,8 +8653,11 @@
       <c r="N130" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O130">
+        <v>7.5185185000000002E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>290</v>
       </c>
@@ -8301,8 +8694,11 @@
       <c r="N131" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O131">
+        <v>0.124353741</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>292</v>
       </c>
@@ -8339,8 +8735,11 @@
       <c r="N132" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O132">
+        <v>6.217702E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>294</v>
       </c>
@@ -8377,8 +8776,11 @@
       <c r="N133" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O133">
+        <v>7.0041100999999995E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>296</v>
       </c>
@@ -8415,8 +8817,11 @@
       <c r="N134" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O134">
+        <v>0.56159895199999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>298</v>
       </c>
@@ -8453,8 +8858,11 @@
       <c r="N135" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O135">
+        <v>0.22562850400000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>300</v>
       </c>
@@ -8491,8 +8899,11 @@
       <c r="N136" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O136">
+        <v>0.598579729</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>302</v>
       </c>
@@ -8529,8 +8940,11 @@
       <c r="N137" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O137">
+        <v>2.0465983E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>304</v>
       </c>
@@ -8567,8 +8981,11 @@
       <c r="N138" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O138">
+        <v>0.36358495899999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>306</v>
       </c>
@@ -8605,8 +9022,11 @@
       <c r="N139" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O139">
+        <v>0.40618177599999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>308</v>
       </c>
@@ -8646,8 +9066,11 @@
       <c r="N140" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O140">
+        <v>0.46757943699999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>310</v>
       </c>
@@ -8687,8 +9110,11 @@
       <c r="N141" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O141">
+        <v>0.61975116600000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>312</v>
       </c>
@@ -8725,8 +9151,11 @@
       <c r="N142" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O142">
+        <v>3.8472589000000001E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>314</v>
       </c>
@@ -8763,8 +9192,11 @@
       <c r="N143" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O143">
+        <v>2.2236207000000001E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>316</v>
       </c>
@@ -8801,8 +9233,11 @@
       <c r="N144" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O144">
+        <v>2.3676738999999999E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>318</v>
       </c>
@@ -8839,8 +9274,11 @@
       <c r="N145" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O145">
+        <v>4.5921643999999998E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>320</v>
       </c>
@@ -8877,8 +9315,11 @@
       <c r="N146" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O146">
+        <v>0.57885493499999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>322</v>
       </c>
@@ -8915,8 +9356,11 @@
       <c r="N147" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O147">
+        <v>0.39839875299999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>324</v>
       </c>
@@ -8953,8 +9397,11 @@
       <c r="N148" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O148">
+        <v>0.65304681200000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>326</v>
       </c>
@@ -8991,8 +9438,11 @@
       <c r="N149" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O149">
+        <v>0.11501552399999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>328</v>
       </c>
@@ -9029,8 +9479,11 @@
       <c r="N150" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O150">
+        <v>0.476346989</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>330</v>
       </c>
@@ -9067,8 +9520,11 @@
       <c r="N151" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O151">
+        <v>0.48364059100000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>332</v>
       </c>
@@ -9108,8 +9564,11 @@
       <c r="N152" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O152">
+        <v>0.46401718600000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>334</v>
       </c>
@@ -9149,8 +9608,11 @@
       <c r="N153" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O153">
+        <v>0.61586926600000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>336</v>
       </c>
@@ -9187,8 +9649,11 @@
       <c r="N154" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O154">
+        <v>2.7817640000000001E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>338</v>
       </c>
@@ -9225,8 +9690,11 @@
       <c r="N155" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O155">
+        <v>4.726056E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>340</v>
       </c>
@@ -9263,8 +9731,11 @@
       <c r="N156" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O156">
+        <v>4.8659190999999997E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>342</v>
       </c>
@@ -9301,8 +9772,11 @@
       <c r="N157" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O157">
+        <v>3.1671566999999998E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>344</v>
       </c>
@@ -9339,8 +9813,11 @@
       <c r="N158" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O158">
+        <v>0.32617554900000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>346</v>
       </c>
@@ -9377,8 +9854,11 @@
       <c r="N159" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O159">
+        <v>0.43474038100000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>348</v>
       </c>
@@ -9415,8 +9895,11 @@
       <c r="N160" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O160">
+        <v>0.50454179600000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>350</v>
       </c>
@@ -9453,8 +9936,11 @@
       <c r="N161" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O161">
+        <v>0.44780349600000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>352</v>
       </c>
@@ -9488,8 +9974,11 @@
       <c r="N162" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O162">
+        <v>8.4653878000000002E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>356</v>
       </c>
@@ -9523,8 +10012,11 @@
       <c r="N163" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O163">
+        <v>1.6300601000000001E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>359</v>
       </c>
@@ -9564,8 +10056,11 @@
       <c r="N164" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O164">
+        <v>0.36982784699999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>361</v>
       </c>
@@ -9602,8 +10097,11 @@
       <c r="N165" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O165">
+        <v>5.3352600999999999E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>363</v>
       </c>
@@ -9640,8 +10138,11 @@
       <c r="N166" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O166">
+        <v>0.50439204800000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>365</v>
       </c>
@@ -9678,8 +10179,11 @@
       <c r="N167" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O167">
+        <v>0.12802101599999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>367</v>
       </c>
@@ -9716,8 +10220,11 @@
       <c r="N168" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O168">
+        <v>0.52867493600000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>369</v>
       </c>
@@ -9754,8 +10261,11 @@
       <c r="N169" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O169">
+        <v>0.55330596099999996</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>371</v>
       </c>
@@ -9789,8 +10299,11 @@
       <c r="N170" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O170">
+        <v>0.113753878</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>373</v>
       </c>
@@ -9830,8 +10343,11 @@
       <c r="N171" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O171">
+        <v>0.23384285299999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>375</v>
       </c>
@@ -9871,8 +10387,11 @@
       <c r="N172" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O172">
+        <v>0.52413419900000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>377</v>
       </c>
@@ -9909,8 +10428,11 @@
       <c r="N173" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O173">
+        <v>7.5814020999999995E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>379</v>
       </c>
@@ -9947,8 +10469,11 @@
       <c r="N174" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O174">
+        <v>0.58719585500000004</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>381</v>
       </c>
@@ -9985,8 +10510,11 @@
       <c r="N175" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O175">
+        <v>0.163875189</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>383</v>
       </c>
@@ -10023,8 +10551,11 @@
       <c r="N176" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O176">
+        <v>0.22708039499999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>385</v>
       </c>
@@ -10061,8 +10592,11 @@
       <c r="N177" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O177">
+        <v>0.45149084299999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>387</v>
       </c>
@@ -10096,8 +10630,11 @@
       <c r="N178" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O178">
+        <v>0.107739288</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>389</v>
       </c>
@@ -10137,8 +10674,11 @@
       <c r="N179" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O179">
+        <v>3.447646E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>391</v>
       </c>
@@ -10175,8 +10715,11 @@
       <c r="N180" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O180">
+        <v>0.57253012000000003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>394</v>
       </c>
@@ -10213,8 +10756,11 @@
       <c r="N181" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O181">
+        <v>0.24608501099999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>396</v>
       </c>
@@ -10251,8 +10797,11 @@
       <c r="N182" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O182">
+        <v>0.58819791200000004</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>398</v>
       </c>
@@ -10289,8 +10838,11 @@
       <c r="N183" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O183">
+        <v>0.193804167</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>400</v>
       </c>
@@ -10327,8 +10879,11 @@
       <c r="N184" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O184">
+        <v>0.24038179100000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>402</v>
       </c>
@@ -10365,8 +10920,11 @@
       <c r="N185" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O185">
+        <v>0.54002134499999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>404</v>
       </c>
@@ -10400,8 +10958,11 @@
       <c r="N186" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O186">
+        <v>9.0238175000000004E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>406</v>
       </c>
@@ -10441,8 +11002,11 @@
       <c r="N187" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O187">
+        <v>2.8389521000000001E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>408</v>
       </c>
@@ -10479,8 +11043,11 @@
       <c r="N188" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O188">
+        <v>0.288275634</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>410</v>
       </c>
@@ -10517,8 +11084,11 @@
       <c r="N189" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O189">
+        <v>5.1043878000000001E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>412</v>
       </c>
@@ -10555,8 +11125,11 @@
       <c r="N190" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O190">
+        <v>0.59516023500000004</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>414</v>
       </c>
@@ -10593,8 +11166,11 @@
       <c r="N191" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O191">
+        <v>0.458713649</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>416</v>
       </c>
@@ -10631,8 +11207,11 @@
       <c r="N192" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O192">
+        <v>0.45874001800000003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>418</v>
       </c>
@@ -10669,8 +11248,11 @@
       <c r="N193" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O193">
+        <v>0.39804493200000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>420</v>
       </c>
@@ -10704,8 +11286,11 @@
       <c r="N194" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O194">
+        <v>4.0984815000000001E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>422</v>
       </c>
@@ -10745,8 +11330,11 @@
       <c r="N195" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O195">
+        <v>2.7745489000000002E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>424</v>
       </c>
@@ -10783,8 +11371,11 @@
       <c r="N196" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O196">
+        <v>0.50509372500000005</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>426</v>
       </c>
@@ -10824,8 +11415,11 @@
       <c r="N197" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O197">
+        <v>1.4635578E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>428</v>
       </c>
@@ -10862,8 +11456,11 @@
       <c r="N198" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O198">
+        <v>0.56269877300000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>430</v>
       </c>
@@ -10900,8 +11497,11 @@
       <c r="N199" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O199">
+        <v>0.47132136200000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>432</v>
       </c>
@@ -10938,8 +11538,11 @@
       <c r="N200" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O200">
+        <v>0.485000612</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>434</v>
       </c>
@@ -10973,8 +11576,11 @@
       <c r="N201" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O201">
+        <v>4.0778838999999997E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>436</v>
       </c>
@@ -11014,8 +11620,11 @@
       <c r="N202" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O202">
+        <v>0.34358841800000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>438</v>
       </c>
@@ -11052,8 +11661,11 @@
       <c r="N203" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O203">
+        <v>0.51239822400000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>440</v>
       </c>
@@ -11090,8 +11702,11 @@
       <c r="N204" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O204">
+        <v>0.134954359</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>442</v>
       </c>
@@ -11128,8 +11743,11 @@
       <c r="N205" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O205">
+        <v>0.69345981000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>444</v>
       </c>
@@ -11166,8 +11784,11 @@
       <c r="N206" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O206">
+        <v>0.336166093</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>446</v>
       </c>
@@ -11204,8 +11825,11 @@
       <c r="N207" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O207">
+        <v>0.235054348</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>448</v>
       </c>
@@ -11242,8 +11866,11 @@
       <c r="N208" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O208">
+        <v>0.30866685900000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>450</v>
       </c>
@@ -11277,8 +11904,11 @@
       <c r="N209" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O209">
+        <v>6.6648821999999996E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>452</v>
       </c>
@@ -11318,8 +11948,11 @@
       <c r="N210" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O210">
+        <v>0.48451603900000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>454</v>
       </c>
@@ -11356,8 +11989,11 @@
       <c r="N211" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O211">
+        <v>0.58352272699999996</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>456</v>
       </c>
@@ -11394,8 +12030,11 @@
       <c r="N212" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O212">
+        <v>0.28660550499999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>458</v>
       </c>
@@ -11432,8 +12071,11 @@
       <c r="N213" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O213">
+        <v>0.50458978799999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>460</v>
       </c>
@@ -11470,8 +12112,11 @@
       <c r="N214" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O214">
+        <v>0.37857142900000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>462</v>
       </c>
@@ -11505,8 +12150,11 @@
       <c r="N215" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O215">
+        <v>3.6702748E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>464</v>
       </c>
@@ -11540,8 +12188,11 @@
       <c r="N216" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O216">
+        <v>4.0716330000000002E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>466</v>
       </c>
@@ -11581,8 +12232,11 @@
       <c r="N217" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O217">
+        <v>0.56592650799999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>54</v>
       </c>
@@ -11619,8 +12273,11 @@
       <c r="N218" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O218">
+        <v>4.2430506E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>469</v>
       </c>
@@ -11657,8 +12314,11 @@
       <c r="N219" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O219">
+        <v>0.45671405999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>471</v>
       </c>
@@ -11694,6 +12354,9 @@
       </c>
       <c r="N220" t="s">
         <v>14</v>
+      </c>
+      <c r="O220">
+        <v>0.54560147800000003</v>
       </c>
     </row>
   </sheetData>
